--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2362224.264832879</v>
+        <v>2466403.89928395</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283174</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9294070.032720692</v>
+        <v>9294070.032720691</v>
       </c>
     </row>
     <row r="11">
@@ -662,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>57.21379282842584</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>20.47554896769133</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -823,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>18.93482921065033</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>184.3677101338581</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -880,10 +882,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>9.858513800115643</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>57.8157898639751</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,22 +1059,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>71.67037196991666</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>23.55314877837032</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>210.0950343963926</v>
+        <v>4.792004777350766</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1187,16 +1189,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1294,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>36.68021964049249</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>73.75087229747653</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695769</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,10 +1432,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1543,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428256</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444143</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1765,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>12.74007641194112</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>93.3890488590942</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444149</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701368</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>57.24347904696276</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428269</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,16 +2247,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>99.97427419833814</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>176.1811323375807</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2333,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2482,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428298</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>117.6579322793572</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695709</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2728,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>172.0260335000799</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>193.3679902607866</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881266</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701358</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2953,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G31" t="n">
-        <v>19.91555826189188</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3086,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3190,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>136.9649966249151</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576191</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3427,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3439,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>71.76895293959988</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722647</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3667,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1.799772605717069</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788180832</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444159</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>33.01627976944245</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3913,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710095</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>70.0455488112509</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>209.5058002623118</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1675.730933054506</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
-        <v>1675.730933054506</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4325,10 +4327,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4346,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993392</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.565186649821</v>
+        <v>2735.124556099686</v>
       </c>
       <c r="W2" t="n">
-        <v>2435.796531379707</v>
+        <v>2382.355900829572</v>
       </c>
       <c r="X2" t="n">
-        <v>2062.330773118627</v>
+        <v>2008.890142568492</v>
       </c>
       <c r="Y2" t="n">
-        <v>2062.330773118627</v>
+        <v>1618.75081059268</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686063</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106474</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080119</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986292</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978976</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>626.3436713194226</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C4" t="n">
-        <v>626.3436713194226</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1908.168457976725</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1716.482573803551</v>
       </c>
       <c r="T4" t="n">
-        <v>1459.548196436627</v>
+        <v>1494.715958373077</v>
       </c>
       <c r="U4" t="n">
-        <v>1170.44532956227</v>
+        <v>1205.613091498721</v>
       </c>
       <c r="V4" t="n">
-        <v>915.7608413563833</v>
+        <v>950.9286032928337</v>
       </c>
       <c r="W4" t="n">
-        <v>626.3436713194226</v>
+        <v>661.511433255873</v>
       </c>
       <c r="X4" t="n">
-        <v>626.3436713194226</v>
+        <v>433.5218823578557</v>
       </c>
       <c r="Y4" t="n">
-        <v>626.3436713194226</v>
+        <v>212.7293032143256</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>1611.504630229388</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1242.542113288977</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>884.2764146822262</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>498.488162083982</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>87.50225729437443</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>76.47021117977498</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>76.47021117977498</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912092</v>
@@ -4571,46 +4573,46 @@
         <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450754</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X5" t="n">
-        <v>2366.344253709365</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="Y5" t="n">
-        <v>1976.204921733553</v>
+        <v>1998.10447029351</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927788</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>480.6870701241381</v>
+        <v>752.7622949738575</v>
       </c>
       <c r="C7" t="n">
-        <v>311.7508871962312</v>
+        <v>583.8261120459506</v>
       </c>
       <c r="D7" t="n">
-        <v>311.7508871962312</v>
+        <v>433.7094726336148</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>285.7963790512217</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>138.9064315533114</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>138.9064315533114</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1111.117664995925</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W7" t="n">
-        <v>1111.117664995925</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>883.128114097908</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y7" t="n">
-        <v>662.3355349543779</v>
+        <v>934.4107598040972</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1901.535346136984</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>1532.572829196573</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E8" t="n">
         <v>934.5673701373257</v>
@@ -4802,22 +4804,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4835,19 +4837,19 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176918</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176918</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2678.274518176918</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2288.135186201106</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>775.9977502341333</v>
+        <v>662.9318377313859</v>
       </c>
       <c r="C10" t="n">
-        <v>607.0615673062264</v>
+        <v>493.9956548034791</v>
       </c>
       <c r="D10" t="n">
-        <v>456.9449278938906</v>
+        <v>493.9956548034791</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>493.9956548034791</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>347.1057073055687</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1852.798717484981</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1661.112833311807</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1661.112833311807</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1661.112833311807</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V10" t="n">
-        <v>1406.42834510592</v>
+        <v>1582.779602640134</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.42834510592</v>
+        <v>1293.362432603173</v>
       </c>
       <c r="X10" t="n">
-        <v>1178.438794207903</v>
+        <v>1065.372881705156</v>
       </c>
       <c r="Y10" t="n">
-        <v>957.646215064373</v>
+        <v>844.5803025616257</v>
       </c>
     </row>
     <row r="11">
@@ -5027,55 +5029,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014782</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355941</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637308</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890283</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.11872044489</v>
+        <v>2148.043492616111</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684177</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270452</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5221,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168617</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
@@ -5276,10 +5278,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,10 +5290,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5312,16 +5314,16 @@
         <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5357,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>352.5519571452603</v>
       </c>
       <c r="L15" t="n">
-        <v>542.9134462654462</v>
+        <v>352.5519571452603</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891998</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446605</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.6461798836023</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C16" t="n">
-        <v>565.7099969556954</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>415.5933575433596</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>415.5933575433596</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>415.5933575433596</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>248.3972582582396</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>106.6854271004377</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5473,13 +5475,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1339.368993063876</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>1111.379442165859</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.294644713842</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362698</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756267</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969299</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969299</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2757.723669558407</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C19" t="n">
-        <v>2588.7874866305</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>2588.7874866305</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>2588.7874866305</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>2588.7874866305</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>2421.59138734538</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822169</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650997</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.932614305902</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>4221.331149328843</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>3932.255922673041</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>3677.571434467154</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>3388.154264430194</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>3160.164713532176</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>2939.372134388646</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,40 +5764,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>95.5840502527391</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>95.5840502527391</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>95.5840502527391</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438167</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3118.738694571972</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>2949.802511644065</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>2799.68587223173</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>2651.772778649336</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>2504.882831151426</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866306</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822169</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398595</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4690.833152398595</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4471.231687421537</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4293.270947686607</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>4038.58645948072</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3749.169289443759</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3521.179738545742</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3300.387159402212</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192512</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756267</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468476</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962607</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951537</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400726</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121657</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121657</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121657</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121657</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270456</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2261.070983590888</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.46108051051</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.28419561186</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138424</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703123</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192613</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797193</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637309</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890283</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.11872044489</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684178</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>3031.88921499615</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>3031.88921499615</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>2881.772575583814</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797193</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782959</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038346</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797749</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279804</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580262</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580262</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580262</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.963083580262</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>3227.210417279773</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>3031.88921499615</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468476</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962607</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962607</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517214</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876702</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597633</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474275</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>113.9333885650344</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>113.9333885650344</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.34034846144</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179099</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192639</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797191</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>119.2902967703773</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969296</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>662.1522880254209</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>493.2161050975141</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>343.0994656851784</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851784</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851784</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2125.759767795858</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1836.684541140056</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1582.000052934169</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1292.582882897208</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1064.593331999191</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>843.8007528556607</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797194</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6947,37 +6949,37 @@
         <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756267</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468476</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468476</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.7665653734</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1802.364528928007</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2354.274259167294</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>734.6461798836027</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>565.7099969556958</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>415.5933575433601</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>415.5933575433601</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>415.5933575433601</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G37" t="n">
-        <v>248.39725825824</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.46108051051</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.28419561186</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138424</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>916.2946447138424</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551878</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611467</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004716</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192613</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466577</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123006</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852892</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591812</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866616</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797194</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756267</v>
+        <v>352.5519571452603</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756267</v>
+        <v>352.5519571452603</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021791</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756786</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O39" t="n">
-        <v>2020.349486996074</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2443.972636491142</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797194</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.15024091081</v>
@@ -7345,37 +7347,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362708</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273913</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273913</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239599</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>634.5603720565515</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>1231.938859683104</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>662.1522880254209</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>493.2161050975141</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>343.0994656851784</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>343.0994656851784</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851784</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.28419561186</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138424</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703123</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192612</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
@@ -7658,40 +7660,40 @@
         <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273913</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273913</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273913</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>590.9096564684982</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438164</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998423</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1022.53029237294</v>
+        <v>3175.341129796739</v>
       </c>
       <c r="C46" t="n">
-        <v>853.5941094450333</v>
+        <v>3006.404946868832</v>
       </c>
       <c r="D46" t="n">
-        <v>703.4774700326975</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="E46" t="n">
-        <v>555.5643764503044</v>
+        <v>2708.375213874103</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797193</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782959</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038346</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797749</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279804</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853369</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580268</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832671</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487575</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487575</v>
+        <v>4229.310593838918</v>
       </c>
       <c r="U46" t="n">
-        <v>2197.062545487575</v>
+        <v>3940.235367183116</v>
       </c>
       <c r="V46" t="n">
-        <v>1942.378057281688</v>
+        <v>3685.550878977229</v>
       </c>
       <c r="W46" t="n">
-        <v>1652.960887244727</v>
+        <v>3396.133708940269</v>
       </c>
       <c r="X46" t="n">
-        <v>1424.97133634671</v>
+        <v>3396.133708940269</v>
       </c>
       <c r="Y46" t="n">
-        <v>1204.17875720318</v>
+        <v>3175.341129796739</v>
       </c>
     </row>
   </sheetData>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.2291039219413</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.2658363185655</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23653,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>68.52575990662439</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>193.1339494774968</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>110.0033420516651</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194117</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788575</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>110.0033420516634</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194088</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>63.36835372228737</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>114.1584408891642</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>25.21666309130822</v>
       </c>
     </row>
     <row r="29">
@@ -24734,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G31" t="n">
-        <v>145.608580030377</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>80.44045370237313</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>68.52575990662397</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25555,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>144.6341900408521</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219408</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>146.8157004124948</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>75.37549921168035</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26074,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>7.899650064976441</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>800386.701928027</v>
+        <v>800386.7019280267</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>800386.7019280273</v>
+        <v>800386.701928027</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448193</v>
+      </c>
+      <c r="C2" t="n">
+        <v>636307.3716448196</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448194</v>
       </c>
-      <c r="C2" t="n">
-        <v>636307.3716448194</v>
-      </c>
-      <c r="D2" t="n">
-        <v>636307.3716448193</v>
-      </c>
       <c r="E2" t="n">
-        <v>625538.6147597553</v>
+        <v>625538.614759755</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="G2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="H2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625538.614759755</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597546</v>
       </c>
       <c r="J2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="K2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="K2" t="n">
-        <v>625538.614759755</v>
-      </c>
       <c r="L2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="M2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625538.6147597547</v>
       </c>
       <c r="N2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="O2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="P2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597552</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26399,7 +26401,7 @@
         <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.139184627798386e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820638</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="C4" t="n">
+        <v>93403.78684820635</v>
+      </c>
+      <c r="D4" t="n">
         <v>93403.78684820632</v>
       </c>
-      <c r="D4" t="n">
-        <v>93403.78684820631</v>
-      </c>
       <c r="E4" t="n">
+        <v>14216.75207685493</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14216.75207685503</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14216.75207685498</v>
+      </c>
+      <c r="H4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
+        <v>14216.75207685504</v>
+      </c>
+      <c r="J4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="G4" t="n">
-        <v>14216.75207685497</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14216.75207685499</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
+        <v>14216.75207685501</v>
+      </c>
+      <c r="L4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="J4" t="n">
-        <v>14216.75207685497</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14216.752076855</v>
-      </c>
-      <c r="L4" t="n">
-        <v>14216.75207685498</v>
-      </c>
       <c r="M4" t="n">
-        <v>14216.75207685491</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685492</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="O4" t="n">
-        <v>14216.75207685495</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="P4" t="n">
         <v>14216.75207685505</v>
@@ -26482,34 +26484,34 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893775.1014923728</v>
+        <v>-893775.101492373</v>
       </c>
       <c r="C6" t="n">
-        <v>434969.6442352198</v>
+        <v>434969.6442352203</v>
       </c>
       <c r="D6" t="n">
-        <v>434969.6442352197</v>
+        <v>434969.6442352196</v>
       </c>
       <c r="E6" t="n">
-        <v>184786.8710516376</v>
+        <v>184786.8710516373</v>
       </c>
       <c r="F6" t="n">
-        <v>510199.3328589929</v>
+        <v>510199.3328589927</v>
       </c>
       <c r="G6" t="n">
+        <v>510199.3328589933</v>
+      </c>
+      <c r="H6" t="n">
         <v>510199.3328589927</v>
-      </c>
-      <c r="H6" t="n">
-        <v>510199.3328589929</v>
       </c>
       <c r="I6" t="n">
         <v>510199.3328589924</v>
@@ -26546,22 +26548,22 @@
         <v>292668.1304617153</v>
       </c>
       <c r="K6" t="n">
-        <v>510199.3328589928</v>
+        <v>510199.3328589927</v>
       </c>
       <c r="L6" t="n">
+        <v>510199.3328589924</v>
+      </c>
+      <c r="M6" t="n">
+        <v>425144.3049234808</v>
+      </c>
+      <c r="N6" t="n">
+        <v>510199.3328589924</v>
+      </c>
+      <c r="O6" t="n">
+        <v>510199.3328589929</v>
+      </c>
+      <c r="P6" t="n">
         <v>510199.3328589927</v>
-      </c>
-      <c r="M6" t="n">
-        <v>425144.3049234807</v>
-      </c>
-      <c r="N6" t="n">
-        <v>510199.3328589929</v>
-      </c>
-      <c r="O6" t="n">
-        <v>510199.3328589927</v>
-      </c>
-      <c r="P6" t="n">
-        <v>510199.332858993</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.519713256482334e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26808,28 +26810,28 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.134357389869208e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26963,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483759</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.134357389869208e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>297.4692487922571</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>307.2767095024436</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,19 +27545,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>69.99732345939699</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>35.18123914231109</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>31.71841597281033</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>311.9153108144939</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>73.08464294440412</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>228.5844945454577</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>144.5880072242903</v>
+        <v>349.8910368433322</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27907,16 +27909,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>129.3455886185357</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>15.1812803725708</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28071,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28138,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-2.055372363139626e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28150,10 +28152,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-9.352380938653055e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-9.352380938653055e-14</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28342,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-5.464171643889758e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -29053,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-5.832667682170721e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29086,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-5.832667682170721e-14</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29095,7 +29097,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>-5.832667682170721e-14</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29569,7 +29571,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>-5.464083748953504e-13</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31841,7 +31843,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473074</v>
@@ -31853,10 +31855,10 @@
         <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>551.7051287319844</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704897</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32075,13 +32077,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>248.0319961154031</v>
       </c>
       <c r="L15" t="n">
-        <v>592.1874941409594</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862124</v>
@@ -32093,10 +32095,10 @@
         <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>616.5397119226047</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>732.4825987614906</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420756</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422588</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>416.4300581532608</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214701</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473075</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862125</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704892</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>340.4395077511216</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214701</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.285322933819</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437246</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214701</v>
+        <v>543.0832917018711</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420756</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862125</v>
+        <v>433.9798411722591</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>334.769386094614</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,34 +33885,34 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
         <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669225</v>
@@ -33922,10 +33924,10 @@
         <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,43 +33964,43 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>246.2467565146281</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214701</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q39" t="n">
-        <v>250.1723312270649</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742441</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34056,31 +34058,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
         <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
         <v>0.1345549672467222</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.307619600775</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>345.6771571865324</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862125</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,13 +34438,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.307619600775</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
@@ -34451,34 +34453,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473075</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M45" t="n">
-        <v>232.1537035940569</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485292</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674332</v>
@@ -35501,10 +35503,10 @@
         <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>409.1088842875399</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>110.1905571410441</v>
       </c>
       <c r="L15" t="n">
-        <v>453.6331143610852</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.412613764194</v>
@@ -35741,10 +35743,10 @@
         <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>477.9853321427306</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>590.3485648394724</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678998</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>274.2960242312425</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071399</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674334</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641942</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>188.922057956159</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>197.8432633066772</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071399</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,25 +36989,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
         <v>120.4022572998984</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396422</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.7309431539448</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992802</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071399</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37226,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
         <v>120.4022572998984</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641942</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>200.7949786802838</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,25 +37463,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
         <v>120.4022572998984</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396422</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193523</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
         <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>108.4053175402692</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641942</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.1905571410434</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
         <v>120.4022572998984</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774958</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>207.1227774066582</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641942</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789219</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
         <v>120.4022572998984</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774958</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38099,25 +38101,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674334</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M45" t="n">
-        <v>90.0196696720386</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625077</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789219</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066317</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
         <v>120.4022572998984</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2466403.89928395</v>
+        <v>2462391.289269958</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283178</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9294070.032720691</v>
+        <v>9294070.032720692</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -718,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>20.47554896769133</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>23.79925355567503</v>
       </c>
     </row>
     <row r="3">
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>18.93482921065033</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>117.0340619339638</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>9.858513800115643</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>71.67037196991666</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>53.7634345605265</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>4.792004777350766</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>402.7106095258318</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1296,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>36.68021964049249</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>51.06561173382013</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695769</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1432,10 +1432,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444143</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428209</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>93.3890488590942</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444149</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695675</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>57.24347904696276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670958</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444152</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>99.97427419833814</v>
+        <v>83.06560892428253</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S25" t="n">
-        <v>117.6579322793572</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>41.33703994143047</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>193.3679902607866</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703276</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703276</v>
       </c>
       <c r="H34" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784694</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1.799772605717069</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797035</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053468</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>209.5058002623118</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673027</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4330,19 +4330,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4366,16 +4366,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2735.124556099686</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2382.355900829572</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X2" t="n">
-        <v>2008.890142568492</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y2" t="n">
-        <v>1618.75081059268</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064583</v>
@@ -4412,13 +4412,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992584</v>
@@ -4430,31 +4430,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.7293032143256</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>212.7293032143256</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>212.7293032143256</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143256</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
         <v>66.51211643218342</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1908.168457976725</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1716.482573803551</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1494.715958373077</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1205.613091498721</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>950.9286032928337</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W4" t="n">
-        <v>661.511433255873</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>433.5218823578557</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>212.7293032143256</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1611.504630229388</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C5" t="n">
-        <v>1242.542113288977</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="D5" t="n">
-        <v>884.2764146822262</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="E5" t="n">
-        <v>498.488162083982</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>87.50225729437443</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>76.47021117977498</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>76.47021117977498</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4588,31 +4588,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269322</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2388.243802269322</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1998.10447029351</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>752.7622949738575</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>583.8261120459506</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>433.7094726336148</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>285.7963790512217</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>138.9064315533114</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>138.9064315533114</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088492</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882605</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.192889845645</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.203338947627</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.4107598040972</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943748</v>
+        <v>1611.504630229389</v>
       </c>
       <c r="C8" t="n">
-        <v>939.4077790033366</v>
+        <v>1242.542113288978</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>884.2764146822271</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>884.2764146822271</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>473.2905098926196</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>1998.104470293511</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>662.9318377313859</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>493.9956548034791</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>493.9956548034791</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>493.9956548034791</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>347.1057073055687</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>118.0935424259411</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>118.0935424259411</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1582.779602640134</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1293.362432603173</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1065.372881705156</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>844.5803025616257</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168612</v>
@@ -5035,58 +5035,58 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014782</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355941</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191926</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349515</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061504</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.043492616111</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5254,58 +5254,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168617</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192633</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
@@ -5314,16 +5314,16 @@
         <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>352.5519571452603</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452603</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718124</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.528408326419</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,13 +5454,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
@@ -5475,13 +5475,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1339.368993063876</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1111.379442165859</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362698</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L18" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,70 +5731,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168627</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362701</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G22" t="n">
-        <v>194.8007783998286</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5983,19 +5983,19 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6004,25 +6004,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>577.8620388433919</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2261.070983590888</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2041.469518613829</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1752.394291958027</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1497.70980375214</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1208.292633715179</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>980.3030828171618</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>759.5105036736317</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3031.88921499615</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>3031.88921499615</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>2881.772575583814</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>2733.859482001421</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>2586.969534503511</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>2419.773435218391</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>3227.210417279773</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y28" t="n">
-        <v>3031.88921499615</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="29">
@@ -6451,25 +6451,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6481,31 +6481,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="32">
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="35">
@@ -6928,31 +6928,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7168,52 +7168,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>352.5519571452603</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452603</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718124</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.528408326419</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400721</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703119</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7548,16 +7548,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7569,37 +7569,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
         <v>1746.193029533436</v>
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7727,25 +7727,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3175.341129796739</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>3006.404946868832</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>2856.288307456496</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>2708.375213874103</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>2561.485266376193</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>4229.310593838918</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>3940.235367183116</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>3685.550878977229</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>3396.133708940269</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>3396.133708940269</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>3175.341129796739</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986239</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>43.72409101823369</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>193.1339494774968</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0033420516651</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>57.22910392194134</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>40.32043864788575</v>
+        <v>57.22910392194133</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S25" t="n">
-        <v>63.36835372228737</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>25.21666309130822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="H34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>72.11969353038614</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>144.6341900408521</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.22910392194107</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194146</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>7.899650064976441</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194143</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>800386.701928027</v>
+        <v>800386.7019280271</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>800386.7019280271</v>
+        <v>800386.701928027</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>800386.7019280267</v>
+        <v>800386.701928027</v>
       </c>
     </row>
     <row r="12">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448193</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597552</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.614759755</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="K2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="M2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="N2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="O2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625538.6147597547</v>
       </c>
       <c r="P2" t="n">
         <v>625538.6147597549</v>
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
-        <v>3.139184627798386e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685493</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685503</v>
+        <v>14216.75207685499</v>
       </c>
       <c r="G4" t="n">
         <v>14216.75207685498</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685498</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685504</v>
+        <v>14216.75207685501</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
         <v>14216.75207685505</v>
@@ -26484,13 +26484,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893775.101492373</v>
+        <v>-893775.1014923728</v>
       </c>
       <c r="C6" t="n">
+        <v>434969.6442352202</v>
+      </c>
+      <c r="D6" t="n">
         <v>434969.6442352203</v>
       </c>
-      <c r="D6" t="n">
-        <v>434969.6442352196</v>
-      </c>
       <c r="E6" t="n">
-        <v>184786.8710516373</v>
+        <v>184439.4917972807</v>
       </c>
       <c r="F6" t="n">
-        <v>510199.3328589927</v>
+        <v>509851.9536046357</v>
       </c>
       <c r="G6" t="n">
-        <v>510199.3328589933</v>
+        <v>509851.9536046355</v>
       </c>
       <c r="H6" t="n">
-        <v>510199.3328589927</v>
+        <v>509851.9536046358</v>
       </c>
       <c r="I6" t="n">
-        <v>510199.3328589924</v>
+        <v>509851.9536046358</v>
       </c>
       <c r="J6" t="n">
-        <v>292668.1304617153</v>
+        <v>292320.7512073583</v>
       </c>
       <c r="K6" t="n">
-        <v>510199.3328589927</v>
+        <v>509851.9536046357</v>
       </c>
       <c r="L6" t="n">
-        <v>510199.3328589924</v>
+        <v>509851.953604636</v>
       </c>
       <c r="M6" t="n">
-        <v>425144.3049234808</v>
+        <v>424796.9256691241</v>
       </c>
       <c r="N6" t="n">
-        <v>510199.3328589924</v>
+        <v>509851.9536046356</v>
       </c>
       <c r="O6" t="n">
-        <v>510199.3328589929</v>
+        <v>509851.9536046357</v>
       </c>
       <c r="P6" t="n">
-        <v>510199.3328589927</v>
+        <v>509851.9536046357</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.519713256482334e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26810,7 +26810,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26819,13 +26819,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.134357389869208e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26965,17 +26965,17 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483757</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="E3" t="n">
-        <v>278.1987997483759</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.134357389869208e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>307.2767095024436</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>362.4386851003786</v>
       </c>
     </row>
     <row r="3">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>69.99732345939699</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>264.896308138298</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>31.71841597281033</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>73.08464294440412</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,16 +27830,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>198.3742087633015</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>349.8910368433322</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>8.211116127621665</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>129.3455886185357</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>45.28680867601796</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-5.053384223590637e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-2.055372363139626e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28152,10 +28152,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-9.352380938653055e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-9.352380938653055e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28250,7 +28250,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-5.464171643889758e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-1.49213974509621e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-5.832667682170721e-14</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-5.832667682170721e-14</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29097,7 +29097,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>-5.832667682170721e-14</v>
+        <v>-6.48814734149934e-13</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29571,7 +29571,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>-5.464083748953504e-13</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31624,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,25 +31837,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319844</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067235</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,28 +32074,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>248.0319961154031</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181821</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>390.1398273256871</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P33" t="n">
-        <v>543.0832917018711</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663284</v>
@@ -33976,10 +33976,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>246.2467565146281</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862124</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875399</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317594</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>110.1905571410441</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>376.3054212373396</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>101.8925903961638</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>256.1654199113569</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>101.892590396165</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P33" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>291.8458072502408</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J38" t="n">
         <v>285.7087110396421</v>
@@ -37624,10 +37624,10 @@
         <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>108.4053175402692</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
         <v>603.412613764194</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>27.13475084531539</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2462391.289269958</v>
+        <v>2464151.819572743</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283178</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>23.79925355567503</v>
+        <v>227.7172236952942</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>117.0340619339638</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>18.2622570184111</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>120.4263234899699</v>
       </c>
       <c r="V7" t="n">
-        <v>53.7634345605265</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>402.7106095258318</v>
+        <v>225.7402727320836</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>51.06561173382013</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D13" t="n">
-        <v>104.8913819999787</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>15.9345014072213</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428209</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695675</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>168.4805514670958</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444152</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428253</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417106</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.33703994143047</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>78.91051008678056</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703276</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703276</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>137.3676443337302</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797035</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053468</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4327,22 +4327,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4354,25 +4354,25 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X2" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="Y2" t="n">
         <v>2731.767278738087</v>
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4476,16 +4476,16 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1308.370295943748</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C5" t="n">
-        <v>1308.370295943748</v>
+        <v>758.7856865549909</v>
       </c>
       <c r="D5" t="n">
-        <v>1308.370295943748</v>
+        <v>400.5199879482404</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>400.5199879482404</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>393.5744871990369</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>382.5424410844375</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>84.95884069320471</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>1514.348043559524</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4716,16 +4716,16 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
         <v>315.6219318279954</v>
@@ -4755,10 +4755,10 @@
         <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1548.361223971664</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="V7" t="n">
         <v>1494.054724415577</v>
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1611.504630229389</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C8" t="n">
-        <v>1242.542113288978</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="D8" t="n">
-        <v>884.2764146822271</v>
+        <v>1133.303650087722</v>
       </c>
       <c r="E8" t="n">
-        <v>884.2764146822271</v>
+        <v>747.5153974894774</v>
       </c>
       <c r="F8" t="n">
-        <v>473.2905098926196</v>
+        <v>336.5294926998699</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4822,10 +4822,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4837,19 +4837,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269323</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>2388.243802269323</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>1998.104470293511</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4950,16 +4950,16 @@
         <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>285.7963790512222</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>118.0935424259411</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>118.0935424259411</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075801</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5257,70 +5257,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192633</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5530,16 +5530,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
         <v>402.7245934908939</v>
@@ -5667,58 +5667,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,70 +5731,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168627</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362701</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,22 +5825,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438167</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400721</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270452</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703119</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,52 +5977,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,25 +6214,25 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107579</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6244,19 +6244,19 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D28" t="n">
         <v>484.8112968429802</v>
@@ -6381,55 +6381,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X28" t="n">
-        <v>916.294644713842</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703119</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400721</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703119</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192383</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111695</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>988.1395539230172</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>819.2033709951103</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>669.0867315827745</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>521.1736380003814</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>374.283690502471</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1618.570148794804</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1390.580597896787</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>1169.788018753257</v>
       </c>
     </row>
     <row r="38">
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7216,7 +7216,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7405,28 +7405,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7578,7 +7578,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570818</v>
@@ -7587,34 +7587,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7730,7 +7730,7 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
         <v>1072.713683962606</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7815,7 +7815,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570818</v>
@@ -7824,13 +7824,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487568</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986239</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D13" t="n">
-        <v>43.72409101823369</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>57.22910392194134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194133</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>69.70496293143179</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>28.15649395853862</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.22910392194107</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194146</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>800386.7019280271</v>
+        <v>800386.701928027</v>
       </c>
     </row>
     <row r="6">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597552</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="K2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.6147597551</v>
       </c>
       <c r="M2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="O2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820638</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820635</v>
       </c>
       <c r="E4" t="n">
+        <v>14216.75207685509</v>
+      </c>
+      <c r="F4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="F4" t="n">
-        <v>14216.75207685499</v>
-      </c>
       <c r="G4" t="n">
-        <v>14216.75207685498</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685498</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.7520768551</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685505</v>
@@ -26484,13 +26484,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893775.1014923728</v>
+        <v>-893775.1014923725</v>
       </c>
       <c r="C6" t="n">
-        <v>434969.6442352202</v>
+        <v>434969.6442352199</v>
       </c>
       <c r="D6" t="n">
-        <v>434969.6442352203</v>
+        <v>434969.6442352199</v>
       </c>
       <c r="E6" t="n">
-        <v>184439.4917972807</v>
+        <v>184752.1331262017</v>
       </c>
       <c r="F6" t="n">
-        <v>509851.9536046357</v>
+        <v>510164.5949335569</v>
       </c>
       <c r="G6" t="n">
-        <v>509851.9536046355</v>
+        <v>510164.5949335569</v>
       </c>
       <c r="H6" t="n">
-        <v>509851.9536046358</v>
+        <v>510164.594933557</v>
       </c>
       <c r="I6" t="n">
-        <v>509851.9536046358</v>
+        <v>510164.5949335569</v>
       </c>
       <c r="J6" t="n">
-        <v>292320.7512073583</v>
+        <v>292633.3925362796</v>
       </c>
       <c r="K6" t="n">
-        <v>509851.9536046357</v>
+        <v>510164.5949335569</v>
       </c>
       <c r="L6" t="n">
-        <v>509851.953604636</v>
+        <v>510164.594933557</v>
       </c>
       <c r="M6" t="n">
-        <v>424796.9256691241</v>
+        <v>425109.5669980453</v>
       </c>
       <c r="N6" t="n">
-        <v>509851.9536046356</v>
+        <v>510164.594933557</v>
       </c>
       <c r="O6" t="n">
-        <v>509851.9536046357</v>
+        <v>510164.5949335569</v>
       </c>
       <c r="P6" t="n">
-        <v>509851.9536046357</v>
+        <v>510164.5949335569</v>
       </c>
     </row>
   </sheetData>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26968,37 +26968,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>362.4386851003786</v>
+        <v>158.5207149607594</v>
       </c>
     </row>
     <row r="3">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>264.896308138298</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>23.31467275451485</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27827,13 +27827,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>165.785514715643</v>
       </c>
       <c r="V7" t="n">
-        <v>198.3742087633015</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>8.211116127621665</v>
+        <v>185.1814529213698</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>94.35543628911111</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>45.28680867601796</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-5.053384223590637e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28250,7 +28250,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-1.49213974509621e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29094,10 +29094,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V23" t="n">
-        <v>-6.48814734149934e-13</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -31624,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067235</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>244.0266243181821</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,40 +34122,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34164,7 +34164,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,7 +34237,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34304,7 +34304,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,40 +34359,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34401,7 +34401,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565758</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,7 +34474,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796262</v>
@@ -34541,7 +34541,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -35272,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>35.9785935799765</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317594</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>35.9785935799765</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>101.8925903961638</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
@@ -37949,7 +37949,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060455</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236315111</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902405</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121313</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
         <v>264.332588409635</v>
@@ -38186,7 +38186,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
         <v>373.2618997060455</v>
